--- a/Assets/Spreadsheet/Scripts/Chapter4.xlsx
+++ b/Assets/Spreadsheet/Scripts/Chapter4.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scripts&gt;Chapter4" sheetId="1" r:id="R7ed0705959e44285"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scripts&gt;Chapter4" sheetId="1" r:id="R182b404ea9c04e5b"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -14,6 +14,8 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">@back Loc2.CircleReveal time:0.65
+@char p look:left pos:-35,7.5
+@char p look:left pos:35,7.5
 p: {0}
 </x:t>
   </x:si>
@@ -21,6 +23,7 @@
     <x:t xml:space="preserve">
 ; add sfx echo
 @wait 1.5
+@char p look:right pos:50,7.5
 p: {0}
 </x:t>
   </x:si>

--- a/Assets/Spreadsheet/Scripts/Chapter4.xlsx
+++ b/Assets/Spreadsheet/Scripts/Chapter4.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scripts&gt;Chapter4" sheetId="1" r:id="R182b404ea9c04e5b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scripts&gt;Chapter4" sheetId="1" r:id="R76a4676282e24b7a"/>
   </x:sheets>
 </x:workbook>
 </file>
